--- a/TDStore/CTV Hảo.xlsx
+++ b/TDStore/CTV Hảo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16E3F64F-DA25-47E9-ACC0-46A87DF431E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F26D35E-BDCF-4F4B-96B3-43228B6A6FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{B4E93AD0-FCAE-45CC-9919-8B3F8197C095}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Máy</t>
   </si>
@@ -57,12 +57,27 @@
   </si>
   <si>
     <t>Surface</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Số tiền</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>29/06/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -94,15 +109,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,50 +493,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B834ED-E8DD-424B-B27C-85AD60732939}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6200000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3100000</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2-C2</f>
-        <v>3100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>6200000</v>
@@ -468,33 +553,61 @@
       <c r="C3" s="1">
         <v>3100000</v>
       </c>
-      <c r="D3" s="1">
-        <f>B3-C3</f>
+      <c r="E3" s="1">
         <v>3100000</v>
       </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <f>B3-C3-E3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6200000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3100000</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G6" si="0">B4-C4-E4</f>
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>7600000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <v>1580000</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="0">B4-C4</f>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
         <v>6020000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
